--- a/public/downloads/file_import.xlsx
+++ b/public/downloads/file_import.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\MCREW_TECH\time_tracker\public\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp74\htdocs\time_tracker\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F106C-7038-4FC7-940A-E9FD1C08EE9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9415BBBB-CE97-49C6-B1E1-B25EF50F3A7E}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A66EDD90-C114-4CDC-B70F-92062FEE3A7C}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B1699E56-79FF-4220-97D3-8DE42FACA859}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,17 +116,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Employee code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -164,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -518,38 +513,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" ht="19.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -561,43 +555,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>36545</v>
       </c>
+      <c r="E2">
+        <v>12345678</v>
+      </c>
       <c r="F2">
-        <v>12345678</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9A1ACC3E-342D-40FA-BD8E-FC3455741241}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
